--- a/Datos transformados .xlsx
+++ b/Datos transformados .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanp\Desktop\Apps\sm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D3D1E64-6CF8-4F50-82DF-00BD8321F18E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ABA0B69-EFD0-47B2-9FA6-523ACC3B6C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-156" yWindow="1716" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3348" yWindow="2376" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Maestros " sheetId="1" r:id="rId1"/>
@@ -1868,7 +1868,7 @@
   </sheetPr>
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -3412,7 +3412,7 @@
     <col min="6" max="6" width="67.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
